--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F88FA0-F215-4E53-A6A3-E293D2FBC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767DD08E-E6E4-43A2-A157-90D428DB502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="30105" yWindow="4380" windowWidth="21600" windowHeight="12585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clara" sheetId="1" r:id="rId1"/>
+    <sheet name="Maia &amp; Clara" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clara!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maia &amp; Clara'!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>Image</t>
   </si>
@@ -315,6 +315,96 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71Ne9LAW7qL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Yoshi's Crafted World</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/8/3/7/3/1/4/5/9/8/4/4/5/6/6/0/2/4/4/5/2ba1a351-3eaf-4c4a-9efc-f1e6a6c8f996_cropped.jpg_480.avif</t>
+  </si>
+  <si>
+    <t>https://www.digitec.ch/en/s1/product/nintendo-yoshis-crafted-world-switch-switch-lite-switch-oled-en-video-games-20454417</t>
+  </si>
+  <si>
+    <t>49 CHF</t>
+  </si>
+  <si>
+    <t>Captain Toad: Treasure Tracker</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/de/index.cfm/details/product/63694-Captain-Toad-Treasure-Tracker</t>
+  </si>
+  <si>
+    <t>https://www.wog.ch/nas/cover_large/sw/sw_captaintoadtreasuretracker.jpg</t>
+  </si>
+  <si>
+    <t>37.90 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s3/product/24-bottles-urban-025-l-water-bottles-thermos-flasks-21389032</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s3/product/sigg-miracle-wmb-040-l-water-bottles-thermos-flasks-53291495</t>
+  </si>
+  <si>
+    <t>23.90 CHF</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/3/7/2/0/5/9/2/6/6/3/0/4/1/2/7/1/9/3/8/d1fc0547-b35f-4453-ae72-b6dae88e9d7d.png_480.avif</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/5/2/5/8/5/2/2/9/9/7/8/8/3/6/1/7/3/4/2/49014e07-1c9f-43f9-ad17-6ec479dba044_cropped.jpg_2880.avif</t>
+  </si>
+  <si>
+    <t>16.90 CHF</t>
+  </si>
+  <si>
+    <t>Furzipups der Knatterdrache</t>
+  </si>
+  <si>
+    <t>https://www.smythstoys.com/ch/de-ch/spielzeug/brettspiele-und-gesellschaftsspiele/kinderspiele/furzipups-der-knatterdrache/p/246869</t>
+  </si>
+  <si>
+    <t>9.95 CHF</t>
+  </si>
+  <si>
+    <t>Schnappt Hubi!</t>
+  </si>
+  <si>
+    <t>https://image.smythstoys.com/zoom/8000281_5.webp</t>
+  </si>
+  <si>
+    <t>https://www.smythstoys.com/ch/de-ch/spielzeug/brettspiele-und-gesellschaftsspiele/kinderspiele/schnappt-hubi-spiel-mit-dem-frechen-gespenst/p/8000281</t>
+  </si>
+  <si>
+    <t>34.95 CHF</t>
+  </si>
+  <si>
+    <t>Paletti Spaghetti</t>
+  </si>
+  <si>
+    <t>https://image.smythstoys.com/zoom/209042.webp</t>
+  </si>
+  <si>
+    <t>https://www.smythstoys.com/ch/de-ch/spielzeug/brettspiele-und-gesellschaftsspiele/kinderspiele/paletti-spaghetti/p/209042</t>
+  </si>
+  <si>
+    <t>19.95 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s3/product/camelbak-thrive-flip-straw-kids-vi-040-l-water-bottles-thermos-flasks-52764026</t>
+  </si>
+  <si>
+    <t>27.90 CHF</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/1/0/1/8/5/4/1/0/4/7/6/6/3/7/5/6/5/9/5/a9356c14-5bd5-48c2-a32c-c461302d2146.jpg_480.avif</t>
+  </si>
+  <si>
+    <t>Sticla de apa div. modele (2)</t>
+  </si>
+  <si>
+    <t>https://image.smythstoys.com/zoom/246869.webp</t>
   </si>
 </sst>
 </file>
@@ -396,9 +486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +526,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -542,7 +632,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -693,10 +783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -770,8 +860,11 @@
       <c r="D4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -783,6 +876,9 @@
       </c>
       <c r="D5" t="s">
         <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -833,7 +929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -846,8 +942,11 @@
       <c r="D9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -859,6 +958,9 @@
       </c>
       <c r="D10" t="s">
         <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -878,7 +980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -891,8 +993,11 @@
       <c r="D12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -904,6 +1009,9 @@
       </c>
       <c r="D13" t="s">
         <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -957,7 +1065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -969,6 +1077,9 @@
       </c>
       <c r="D17" t="s">
         <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1073,8 +1184,120 @@
         <v>87</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E23" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E31" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767DD08E-E6E4-43A2-A157-90D428DB502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6C2B9-CEE6-4815-AC24-1C8A5AE8674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30105" yWindow="4380" windowWidth="21600" windowHeight="12585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>Image</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>https://image.smythstoys.com/zoom/246869.webp</t>
+  </si>
+  <si>
+    <t>Set de potiuni</t>
+  </si>
+  <si>
+    <t>https://a.media-amazon.com/images/I/918bPHEF3LL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Mixies-Cauldron-Purple-Interactive-Conjure/dp/B0BX6YW5N9/</t>
+  </si>
+  <si>
+    <t>58 EUR</t>
+  </si>
+  <si>
+    <t>Puzzle (3/4/5 ani)</t>
   </si>
 </sst>
 </file>
@@ -783,10 +798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,16 +932,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1294,6 +1309,25 @@
       </c>
       <c r="D31" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1321,13 +1355,14 @@
     <hyperlink ref="C6" r:id="rId13" xr:uid="{D8BFE17E-DF27-42BE-9008-2B58FCF62AC5}"/>
     <hyperlink ref="C4" r:id="rId14" xr:uid="{ACB8C30E-DA07-432A-8D8A-35621280F4DE}"/>
     <hyperlink ref="C5" r:id="rId15" xr:uid="{DCABB4B9-EA39-4015-8EF2-A400F2F52378}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{3CDF166A-E4C5-42BF-A1A5-9540C35727AF}"/>
+    <hyperlink ref="C8" r:id="rId16" display="https://www.amazon.de/dp/B09VP87MH5?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519" xr:uid="{3CDF166A-E4C5-42BF-A1A5-9540C35727AF}"/>
     <hyperlink ref="C2" r:id="rId17" xr:uid="{4F8F927F-3500-495C-80AE-B01291A47CED}"/>
     <hyperlink ref="C9" r:id="rId18" xr:uid="{FDF6EF39-70BA-46D0-8028-D418F90E90BB}"/>
     <hyperlink ref="C11" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
     <hyperlink ref="C16" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
+    <hyperlink ref="C33" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6C2B9-CEE6-4815-AC24-1C8A5AE8674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30105" yWindow="4380" windowWidth="21600" windowHeight="12585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Maia &amp; Clara" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maia &amp; Clara'!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maia &amp; Clara'!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>Image</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>Puzzle (3/4/5 ani)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoo Zürich Gutschein Jahreskarte (Erwachsene / Familie) </t>
+  </si>
+  <si>
+    <t>165 - 220 CHF</t>
+  </si>
+  <si>
+    <t>https://zoo-live.rokka.io/product_cropped_xs_1x/15e654455e44318d0c8e6db4ee8329a78373ad86/gutschein-jahreskarte.jpg?itok=yBy4tjpw</t>
+  </si>
+  <si>
+    <t>https://www.zoo.ch/de/onlineshop/eintrittsgutscheine/gutschein-jahreskarte?v=9</t>
   </si>
 </sst>
 </file>
@@ -798,10 +810,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,32 +942,35 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
@@ -963,16 +978,16 @@
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
@@ -980,16 +995,16 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
@@ -997,16 +1012,16 @@
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
@@ -1014,16 +1029,16 @@
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>87</v>
@@ -1031,16 +1046,16 @@
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1048,16 +1063,16 @@
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>87</v>
@@ -1065,16 +1080,16 @@
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>87</v>
@@ -1082,16 +1097,16 @@
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1099,16 +1114,16 @@
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -1116,13 +1131,13 @@
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -1133,16 +1148,16 @@
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
@@ -1150,16 +1165,16 @@
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>87</v>
@@ -1167,13 +1182,13 @@
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -1182,21 +1197,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,72 +1241,72 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,65 +1314,79 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E32" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
-    <sortCondition ref="D2:D23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="D2:D22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" location="fullscreen=show" xr:uid="{93872F5B-0C07-4D3E-9FDC-981E7DA3A8B0}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{1CBC2028-0FBF-4DBA-991B-F5720BFF0FC0}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{A317B2E7-D11B-404B-814F-4951ACCCB496}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{9EBDD113-7B60-4FA0-9816-040A4FA982B0}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{9F42AFB6-E6EF-4F98-BD0C-625DD8B9D0C0}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{4DBAA792-F75D-44BA-9830-379FEE2AC645}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{91B6E46A-10A1-4590-929A-CCA5D9A34E33}"/>
+    <hyperlink ref="C13" r:id="rId1" location="fullscreen=show" xr:uid="{93872F5B-0C07-4D3E-9FDC-981E7DA3A8B0}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{1CBC2028-0FBF-4DBA-991B-F5720BFF0FC0}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{A317B2E7-D11B-404B-814F-4951ACCCB496}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{9EBDD113-7B60-4FA0-9816-040A4FA982B0}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{9F42AFB6-E6EF-4F98-BD0C-625DD8B9D0C0}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{4DBAA792-F75D-44BA-9830-379FEE2AC645}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{91B6E46A-10A1-4590-929A-CCA5D9A34E33}"/>
     <hyperlink ref="C7" r:id="rId8" location="fullscreen=show" xr:uid="{D61A7CE0-3FEE-49C5-A589-89C3542BDDD5}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{D7C1F1EB-5B11-416E-8A93-7DDE34EFB393}"/>
-    <hyperlink ref="C13" r:id="rId10" location="fullscreen=show" xr:uid="{726FFA01-F771-4AE0-A56E-AC8B3D5BBA21}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{F9E8BB86-AE50-42F5-A2EB-A5AE083F711A}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{D7C1F1EB-5B11-416E-8A93-7DDE34EFB393}"/>
+    <hyperlink ref="C12" r:id="rId10" location="fullscreen=show" xr:uid="{726FFA01-F771-4AE0-A56E-AC8B3D5BBA21}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{F9E8BB86-AE50-42F5-A2EB-A5AE083F711A}"/>
     <hyperlink ref="C3" r:id="rId12" xr:uid="{FD856949-3F16-4159-BE6B-A20C706459F4}"/>
     <hyperlink ref="C6" r:id="rId13" xr:uid="{D8BFE17E-DF27-42BE-9008-2B58FCF62AC5}"/>
     <hyperlink ref="C4" r:id="rId14" xr:uid="{ACB8C30E-DA07-432A-8D8A-35621280F4DE}"/>
     <hyperlink ref="C5" r:id="rId15" xr:uid="{DCABB4B9-EA39-4015-8EF2-A400F2F52378}"/>
-    <hyperlink ref="C8" r:id="rId16" display="https://www.amazon.de/dp/B09VP87MH5?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519" xr:uid="{3CDF166A-E4C5-42BF-A1A5-9540C35727AF}"/>
+    <hyperlink ref="C26" r:id="rId16" display="https://www.amazon.de/dp/B09VP87MH5?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519" xr:uid="{3CDF166A-E4C5-42BF-A1A5-9540C35727AF}"/>
     <hyperlink ref="C2" r:id="rId17" xr:uid="{4F8F927F-3500-495C-80AE-B01291A47CED}"/>
-    <hyperlink ref="C9" r:id="rId18" xr:uid="{FDF6EF39-70BA-46D0-8028-D418F90E90BB}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
-    <hyperlink ref="C16" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
-    <hyperlink ref="C33" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{FDF6EF39-70BA-46D0-8028-D418F90E90BB}"/>
+    <hyperlink ref="C10" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
+    <hyperlink ref="C15" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>

--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/maia-clara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{677A5CBC-C838-4EB3-BA98-F32743D2FCE8}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="4380" windowWidth="21600" windowHeight="12585" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Maia &amp; Clara" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>Image</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>https://www.zoo.ch/de/onlineshop/eintrittsgutscheine/gutschein-jahreskarte?v=9</t>
+  </si>
+  <si>
+    <t>https://www.creativefabrica.com/wp-content/uploads/2021/05/26/Puzzle-icon-simple-style-Graphics-12526078-1-1-580x387.jpg</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,6 +1343,9 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,8 +1393,9 @@
     <hyperlink ref="C10" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
     <hyperlink ref="C15" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
     <hyperlink ref="C34" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
+    <hyperlink ref="B33" r:id="rId22" xr:uid="{80811020-2FBD-4A8F-B7F6-B32231A20F0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/maia-clara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{677A5CBC-C838-4EB3-BA98-F32743D2FCE8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B74AF6-CA07-4DDB-B727-44880B241625}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>Image</t>
   </si>
@@ -513,6 +513,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,7 +820,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1231,9 @@
       <c r="D24" t="s">
         <v>95</v>
       </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1254,6 +1261,9 @@
       </c>
       <c r="D26" t="s">
         <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/maia-clara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B74AF6-CA07-4DDB-B727-44880B241625}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFE136A-4ABF-4C9A-8111-E5800629C9F9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>Image</t>
   </si>
@@ -820,7 +820,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1247,9 @@
       </c>
       <c r="D25" t="s">
         <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/maia-clara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{43414058-B281-4B72-B3D9-1D8DBB99FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFE136A-4ABF-4C9A-8111-E5800629C9F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47862ECC-8382-4E13-BE68-1E8027319746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="5460" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Maia &amp; Clara" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
   <si>
     <t>Image</t>
   </si>
@@ -419,9 +419,6 @@
     <t>58 EUR</t>
   </si>
   <si>
-    <t>Puzzle (3/4/5 ani)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zoo Zürich Gutschein Jahreskarte (Erwachsene / Familie) </t>
   </si>
   <si>
@@ -434,7 +431,16 @@
     <t>https://www.zoo.ch/de/onlineshop/eintrittsgutscheine/gutschein-jahreskarte?v=9</t>
   </si>
   <si>
-    <t>https://www.creativefabrica.com/wp-content/uploads/2021/05/26/Puzzle-icon-simple-style-Graphics-12526078-1-1-580x387.jpg</t>
+    <t>https://www.smythstoys.com/ch/de-ch/spielzeug/brettspiele-und-gesellschaftsspiele/ravensburger/ravensburger-puzzles-und-spiele/ravensburger-puzzle/ravensburger-puzzle-disney-die-eiskoenigin-elsa-anna-und-olaf-3x49-teile/p/8002518</t>
+  </si>
+  <si>
+    <t>https://image.smythstoys.com/zoom/8002518.webp</t>
+  </si>
+  <si>
+    <t>Puzzle: Disney Die Eiskönigin Elsa</t>
+  </si>
+  <si>
+    <t>11.95 CHF</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,7 +822,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,16 +1208,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1355,10 +1357,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,9 +1414,8 @@
     <hyperlink ref="C10" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
     <hyperlink ref="C15" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
     <hyperlink ref="C34" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
-    <hyperlink ref="B33" r:id="rId22" xr:uid="{80811020-2FBD-4A8F-B7F6-B32231A20F0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47862ECC-8382-4E13-BE68-1E8027319746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E5A0E-4BFE-4686-B258-FE5F023417AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="720" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Maia &amp; Clara" sheetId="1" r:id="rId1"/>
+    <sheet name="Wishlist Maia &amp; Clara" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maia &amp; Clara'!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Maia &amp; Clara'!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
   <si>
     <t>Image</t>
   </si>
@@ -822,7 +822,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -1219,8 +1219,11 @@
       <c r="D23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -1298,8 +1301,11 @@
       <c r="D28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1312,8 +1318,11 @@
       <c r="D29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1326,8 +1335,11 @@
       <c r="D30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -1340,8 +1352,11 @@
       <c r="D31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -1354,8 +1369,11 @@
       <c r="D32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -1368,8 +1386,11 @@
       <c r="D33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1384,7 +1405,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E32" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E34" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/wishlist_maia-clara.xlsx
+++ b/wishlist_maia-clara.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E5A0E-4BFE-4686-B258-FE5F023417AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B68F1-5427-485F-9E19-42B7065C6256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Maia &amp; Clara" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Maia &amp; Clara'!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Maia &amp; Clara'!$A$1:$E$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="265">
   <si>
     <t>Image</t>
   </si>
@@ -302,12 +302,6 @@
     <t>Play-Doh Large Dough set</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Reserved / bought</t>
-  </si>
-  <si>
     <t>https://www.galaxus.ch/im/productimages/5/4/9/2/7/5/0/9/2/1/0/5/8/9/6/3/5/1/1/1e39fe12-4347-4476-a617-1326772b6c15_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=700&amp;resizeHeight=483&amp;cropWidth=700&amp;cropHeight=483&amp;quality=high</t>
   </si>
   <si>
@@ -441,6 +435,406 @@
   </si>
   <si>
     <t>11.95 CHF</t>
+  </si>
+  <si>
+    <t>SKIP (skip: hide from display) / Y (reserved: show faded out) / GAP (formatting gap)</t>
+  </si>
+  <si>
+    <t>9 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/3741524727?psc=1&amp;ref_=cm_sw_r_cp_ud_ct_WRC2J9TPX505376KF519</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71IQvmivQSL.jpg</t>
+  </si>
+  <si>
+    <t>Magic Water Colouring</t>
+  </si>
+  <si>
+    <t>30 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Bitzee-2024-Magicals-Interactive-Electronic/dp/B0CSND4V8T/ref=sr_1_1?crid=2FIGW3W6Z998O&amp;dib=eyJ2IjoiMSJ9.i3mbxsNJzD4PPTehT-WNGjoVOceZeJn5R2mYk6ZG8YrB9dE4lVzmuJwKTd1OhvoCgrU31lzXEItydrB4bOfWY-b3Fwh3jyRkVAS62DTWucoMvk4nuAa9qLXJfLoDJeeUyVqzHTomwBHs0X0UAJl5f2pos3DC7uOdQOaysqO-Ykg9mkRHlldMMuQgxXs5-W7fADQCuX_rF_4jPbQd_oKD5LI4KMhPaCzbdXgx6pyQ_8c.5rf5mm466Ld8kUyhMQOTGNQQJRjQSwXkrFLOSdcnnvg&amp;dib_tag=se&amp;keywords=bitzee+magicals&amp;qid=1729845929&amp;sprefix=bitzee+ma%2Caps%2C140&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81KzDuIaCNL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Animale Magice</t>
+  </si>
+  <si>
+    <t>26 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Paw-Patrol-Learning-Laptop/dp/B09W2SYGY9/ref=sr_1_4?crid=3TXW07LSNODXD&amp;dib=eyJ2IjoiMSJ9.aqSg65j_A-3LL_L4kXqS8Z_fzLKbDHn6lFls4301XS3w-4coU9jdO1i2ADl7ppvlygIJ6ehd_IEpZJq5Kx8EYaSHkTkRSqS2AMMpLVyCE-Cf9WQ-c_l8PgzTpcgN5gdREJmdy_b4kcrHXjsPXeI4pD40u3Wb5K-k-AdkzDvlePeRzqUkTZXrxx_EgJlHvf9_0n5BYIZKk1RVCtd6i3sSrfoyLFXsAr9Ca_VnK4aGH8wi8ylEztw9PZw5q7bnplYPkAjxRt1vJVt7nXqP8oFB0xKwI1GSctxexOhPVSPL6F4.hmsfZ-D44Jtm0oT6zTfoyJwbfBDYofU43mmZrk0f3kE&amp;dib_tag=se&amp;keywords=paw+patrol+lernlaptop&amp;qid=1729845893&amp;sprefix=paw+patrol+lern%2Caps%2C125&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91NEu43mBkL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Smoby-Dressing-Popular-Dollhouse-Gabby/dp/B0CY9K6MRH/ref=sr_1_3?crid=36MMI6PHDMFMC&amp;dib=eyJ2IjoiMSJ9.c9vuC5JfAN0gUngFM1I5YvqRamfXFTIdUWcqhdGS8xiExSwOh1f2Ctj1jGxYtL1xR-7DrJHfI5QYHtYSbIaXQbcIhZJQs9otBz3joQ4rEDXcjOde_OFCE0-c9t34nZxr3iKyP68UAtY_KnlR0ki14sszZkWBM43yS2aYD9QweXBwjeOEuPVwcZubVT9oVUQpDjd_mm3P6LZo9gE2uIP1gE51As9jStDgAgt9NjJAVQH4IJopxCtwawDnx8KVNHfo8WnxL7ZdDpurcveNJhO1r0WVsnhM4AOlzN7lDJyDxGg.T-f_oMEP2Fza0bmztN7nwB0ij_SY87FP4YISnEOcJ2k&amp;dib_tag=se&amp;keywords=smoby+frisiertisch+gabby&amp;qid=1729845795&amp;sprefix=smoby+friseurtisch+gabby%2Caps%2C96&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61tVFCO2ZLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Salon Gabby</t>
+  </si>
+  <si>
+    <t>21 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-22580-Adaptation-Well-known-Entertaining/dp/B0D7W16RHW/ref=sr_1_1?crid=33W3ZJWMCJ3U6&amp;dib=eyJ2IjoiMSJ9.rd6AsEmkfsTPiA2mQ7ZBblS7Q1FWU-AiK9IlqhdQtm1eKJM3npv-dbjOkPmvBWCq9bgO-jw1zOherZVmmaKdaBPHdUL-i_Dnk4ecgsQJ0jaSpZd1vCyN5FswK52_lwM3uFiNk6CxiybFftJXUMU61HC7hVg-h3JZgQBhVNGwh142atAjOX8WID8zdXT0iTHNVowH8jQ1EAfmZ4_7EDnFp2zjTx1Ooe87YiOb-myIG2v1AWLqO2vWDIEYRt-EFCXJiR77cO78moxyrYP9PRUB4MqlM3k2GzBr3ZGjyH7Rvr8.6QMekaHl0LxdB9ggAzZRg8y7E0W2d3cDjQWitdv3phM&amp;dib_tag=se&amp;keywords=lotti+karotti+einhorn&amp;qid=1729845712&amp;sprefix=lotti+%2Caps%2C151&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ItnMCR2dL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Lotti Karotti Unicorn</t>
+  </si>
+  <si>
+    <t>8 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Flower-Meadow/dp/B015XS7UAQ/ref=sr_1_6?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81fqssNDPmL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Maia) Puzzle </t>
+  </si>
+  <si>
+    <t>7 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Dollhouse-Children/dp/B0BXLLCXSZ/ref=sr_1_20?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81cnfZUCtTL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-Childrens-Puzzle-Favourite-Dinosaurs/dp/B09DDB9CHM/ref=sr_1_8?crid=6H9K2UOBYCGW&amp;dib=eyJ2IjoiMSJ9.pOzpXEoCcVDebiGOf1UfBHoQE_98Yt-9ps8MjVv6Q7yBp-VUeLXaNn8tibvb7PTihZDgpwF3CBkgBmMa7_6LHkPj0Bz1-sjw952GkWIKwh3nTvl6_vhQd0uAHC3xo-Ml3mrK_rRdfLVKycfNA-7-yPxtL0w892i6zp_Zb90lI3mhkeavM4x6VR-KpuRXjI7LDzy1DOpnclpT3xF02ync5-oXLmtDXp6PtQGM7PeF8ppXmpgW2PVFyrwnOxRa0MLE0L2C89Rv87NlozWp_QrYiK0SezNgwccy6LURdBcbc6s.pIkkiMw7lwPPFrD9UNIUgO7mHajq5MnbaHl2AdoJJlM&amp;dib_tag=se&amp;keywords=ravensburger+puzzle+ab+3+2x12&amp;qid=1729845613&amp;sprefix=ravensburger+puzzle+ab+3+2x%2Caps%2C97&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61CDR8ItfmL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Theo-Klein-10-Piece-Doctors-Case/dp/B0002ML3MK/ref=sr_1_1_sspa?crid=4DLSOMO7CFFH&amp;dib=eyJ2IjoiMSJ9.7nxPsw_LkG-CJICNBTkfGjGYe-WPEO5FoaI3DQrl1kgjO8vkYdeqj0rWaZO9cy94iPuvkJT1NpOZlbZMTuFqDQuvjf_now8n1Ez2X0baqkrWeGDlgHIAA16tcgS1WQHt1JIFSmS9MWy9MnEFjlVrDAQUPRU09L0sNdqwJ9_j3ADt0nGHwtsJD0poIKwlm0hYBZQyL-X2DFiMTDA0jhRW-rjaqbofeXHDlVIPK_Ta4l40Ry9_mfnhiDmKDCfFQUf2FkzNu_H9bnCGO3VpeeSz62xXFrtR9W-gPV19sciwcL4.FD4WElDR3-ulY7A6O0QXKMxLrpVgzMPTc_bBzBppkY4&amp;dib_tag=se&amp;keywords=klein%2Barzt%2Bkoffer&amp;qid=1729845426&amp;sprefix=klein%2Bar%2Caps%2C319&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81J3vtHatLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Trusa doctor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Accessories-Unpacking-Surprises-Mermaid-HRK12/dp/B0CRLYSY7H/ref=sr_1_1_sspa?crid=3DH370C6RA19Q&amp;dib=eyJ2IjoiMSJ9.5n_kquIaPyKlHSzp0JrBDi1QPncmHENqyPIErFgNCekrmsYVJztWt4_iaiyT2lpUl_fQjMaczD4LNk09OHLPLD3kGxzFD3v7VcmMWwZ7y4SK2LEzgnkCNxGLWQ4imixY5oDypJFl34CKCmcVmhEYC5Fg5dDtJg1h3XPtGPIV0dOsAg4Ao43jfrXjwZ1fgLr_t_CmguQRkMJeblSD4JqhoHb2s4gQr1tnw1BOxTfAmULwbKy9PqtVYCr6wkY5fl7yfOB5TKlNfP2vqeF6_8wUdCrMe1dHcfR1PamvrsfnU9s.FVX6P4lyQUEfLLVwlFRoiqjdRgP77RduzLy8VyK81-A&amp;dib_tag=se&amp;keywords=barbie+color+reveal&amp;qid=1729845088&amp;s=toys&amp;sprefix=barbie+color+re%2Ctoys%2C111&amp;sr=1-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/619HvbXSNlL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Sirena Barbie</t>
+  </si>
+  <si>
+    <t>25 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Paw-Patrol-Learning-Educational/dp/B09W2RPFGM/ref=sr_1_1?crid=27879TVAXSDMC&amp;dib=eyJ2IjoiMSJ9.gBFhkTT4VJsbXzfmFH6nLA9XHBnrSXZSr15G23ofAmSvatdZ4x17fOGRi7w4pfNnI8Dtq03vrJ9vfalk2pfMjrR2aBn3iR8WlgMtWFQZVF3qN-4rwWSeDt4KtrpfAwp0KSmPhDMPiN7kIrN-Va8ruKlWoAMbw7MUPxuouDJ9AYybPTftjGIHt3nmNsPoqOkKAE6tcHugBe2dJnksPjcak0_V8XY-vgAjwHWEBSS81yMKYcJuo8ID6RWHJ2OpxxxssIweUUU8036BkNdUV7owvjR48cMUbb-CI359LSXdDnI.7IO2Hjo0k8F9hlZkI2mQUWaXtRlBqVRgiaV0klHHsuw&amp;dib_tag=se&amp;keywords=paw+patrol+lernhandy&amp;qid=1729845016&amp;s=toys&amp;sprefix=paw+patrol+lernhandy%2Ctoys%2C103&amp;sr=1-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81FXrd8-pOL._AC_SY879_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Telefon Paw Patrol</t>
+  </si>
+  <si>
+    <t>17 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/6315876954NPB-Disney-Stitch-Figure-Suitable/dp/B07Q271JXM/ref=sr_1_5?crid=241IRMM0W9185&amp;dib=eyJ2IjoiMSJ9.1CdE7TiRnOOhoEpwc0JJyS_0nYoXwSwrMblaLAz0NGE7ndxcZSKt8RfhJ3YxOyHSuP2BuuGvwzCL5rkgkGWlTEGwrYA6Iunn1kbqmIo4kIfzPyMHq8PKN0B_NvsiZgJMU6Cq1CgfZvVE1slDBKy55ac2JdUC0xtYL7TrVEAZppMm0_iOrTwRJAhWCBuhzyg2_BiqAUfRoUsEry4QSv1IUJ050D-Y4pXqMkjEmYaV-IWh3WGbZmYhjIzyLvVKyF1_gUFBJmxamD0RowRFFwB8XMg4gdY0fJ4ycsLJ2WpphmQ.lxXY7_J0pJABvnJCYEqHGr9RG7wKTz8lgYLLIVqndFE&amp;dib_tag=se&amp;keywords=disney%2Bstitch%2Bleroy%2Bangel%2B25cm&amp;qid=1729845349&amp;s=toys&amp;sprefix=disney%2Bstitch%2Bleroy%2Bangel%2B25cm%2Ctoys%2C107&amp;sr=1-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71d-QML9QWL._SX450_.jpg</t>
+  </si>
+  <si>
+    <t>(Maia) Plus Angel 25cm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/105733519-Princess-Movable-Suitable-Children/dp/B08QYTD24X/ref=sr_1_2?crid=K5EE4ZX6PC2F&amp;dib=eyJ2IjoiMSJ9.6WxTQND8ZRjVlveNJY2qRw0Mm4LH90lyvKyzz7nDafVgwRCnIYzN0bWBiMWZiMP8P163-QVHZGnO9vDq3RJAZwEAzmDQXfBGsgqWPa4-0g7KruRsNtj8nfuKPUBWSzuOZ-3hLnN7hABHEDEYMhLbj_OGraTMT0BRQWcsBS1khICmFnPU3eHBo41bmEBw0YXRe8BbNMYczPvSacihlWG3O1IyUVgp8i5f3cKO4s39KRVhD4gPPFJEUYL93RC4pV6NOYax081G7OZyfV0wcViHLvD-wO1o6ghtjUnqc7IxnQk.KN4nYMyUPUc1xxm5YUWrMV7Lym367vaok8RY7lT9OrI&amp;dib_tag=se&amp;keywords=steffi+love+pferd&amp;qid=1729591110&amp;sprefix=stefi+lo%2Caps%2C116&amp;sr=8-2#customerReviews</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51WGSlK3v6L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Clara) Papusa </t>
+  </si>
+  <si>
+    <t>36 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-73385-GraviTrax-Starter-Children/dp/B0CSZ63YV3/ref=sr_1_5?crid=1X7LU8OFXMUDY&amp;dib=eyJ2IjoiMSJ9.HacZPOrg5jUAw8zb8YX2rP9wurG1VPUH9ajjsfsttYOMungu-BuQav_M7W7LDs_HaLJiA4CCD1XsLUL7P628PHiaWR93cn8kXvmZKpxugWklhxzMUdAxO8NonF9N-uGQB4B7-4lX_3SD91JPzXuOLiPvsGDu3Menod9Pg6gkgWDHxOuh2ZRNrm5yFve3aLzysRcmg5diMQ92Yws4UuWjJvEXvD77q8MLTFxrgWAXOErjvtLv-E_gwG34fWMeduft6MSmf5F-oh8goqjjolGhi-h-dQQ5YecsoFCB3ncrJys.9EKnkXvyxCPIKZXs9Mx9U7m2t-LMTsbMy9fr4BxJK6M&amp;dib_tag=se&amp;keywords=gravitrax+junior+starterset&amp;qid=1729516745&amp;sprefix=gravitrax+junior%2Caps%2C98&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yqCdPH3SL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Gravitrax Junior Starter Set Frozen</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Ravensburger-GraviTrax-Junior-Starter-Environmentally/dp/B0BSX847R3/ref=sr_1_2?crid=1X7LU8OFXMUDY&amp;dib=eyJ2IjoiMSJ9.HacZPOrg5jUAw8zb8YX2rP9wurG1VPUH9ajjsfsttYOMungu-BuQav_M7W7LDs_HaLJiA4CCD1XsLUL7P628PHiaWR93cn8kXvmZKpxugWklhxzMUdAxO8NonF9N-uGQB4B7-4lX_3SD91JPzXuOLiPvsGDu3Menod9Pg6gkgWDHxOuh2ZRNrm5yFve3aLzysRcmg5diMQ92Yws4UuWjJvEXvD77q8MLTFxrgWAXOErjvtLv-E_gwG34fWMeduft6MSmf5F-oh8goqjjolGhi-h-dQQ5YecsoFCB3ncrJys.9EKnkXvyxCPIKZXs9Mx9U7m2t-LMTsbMy9fr4BxJK6M&amp;dib_tag=se&amp;keywords=gravitrax+junior+starterset&amp;qid=1729516745&amp;sprefix=gravitrax+junior%2Caps%2C98&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/715c7oaL5bL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>Gravitrax Junior Starter Set L - Ice</t>
+  </si>
+  <si>
+    <t>66 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Mixies-Cauldron-Purple-Interactive-Conjure/dp/B0BX6YW5N9/ref=sr_1_1?crid=358IKESIBXVKO&amp;dib=eyJ2IjoiMSJ9.oFY88I1D4MFo5A9ePZtzXjbQS4l-SpFJkwgAbWg7MMhtOcENlN6wulpw416W8xsS2fLUPGO47TnycXTPWIxHE2CDymxryzuQt0W7vBohROKY7k9Gxd5wxAniONIj00EQFSdEFqwA14QjSRc8QUbA489aooXS7DEeynFt9EmUOEY8HuoiqkTF2L2tH2U6weSLdM-zRruSR3jTRicqwIRaJ7KS33hoqDz6YFgspU9AJP0G5bDKdrcfvCTO2WeSnZDhWVx8KzBe_NmTT37oDFQSA7zNCmpXIAokJ02pSwIx80U.YJEOHI_2v0L6eI_rOrgvMkf9kcId4bmGS2Bwd1uJk7k&amp;dib_tag=se&amp;keywords=my+magic+mixies&amp;qid=1729516398&amp;sprefix=my+magic+mix%2Caps%2C99&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81yFvCyxfLL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Set potiuni</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Stitch-Disney-Sound-Scent-Small/dp/B0C6YL2H1D/ref=sr_1_1?crid=6EMXNMGZ24N&amp;dib=eyJ2IjoiMSJ9.GuA80LmF0yuVPEU-kqsv9uLayaq9ADpBvReu1nPc2asAtEJmgEUUTq10j-altcYb3t9k1YyGDPJevWY5WAl7q5HRvhO8xbA4PHlUbBc_VRiNiXsoIrryF9CCiw_8Ymsuuje7-xai4s4kYksI-f3wNk23ZAm99jSMVpGYeEs9Du2EbsLhExjtRQruu-kR9luH8MB5o7ECPnd7ASgVz6ZW3uqoxwIynSUbp8zjBukwaj0GZ0w34C_HnUySu_HAhnPT-3Wp0wgwUcFnsx4PPpEmbs-Hw7QzcljVB4diYLvaOs0.0Y9HuQtkgUCAVRkvEzI6CmJ_iNtgsbo1m-JlnVZ6QXk&amp;dib_tag=se&amp;keywords=stitch+soundfunktion+duft+15cm&amp;qid=1729516484&amp;sprefix=stitch+soundfunktion+duft+15cm%2Caps%2C76&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81wmHRHoM8L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Plus Stitch cu sunet si miros</t>
+  </si>
+  <si>
+    <t>20 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/VTech-Gabbys-Dollhouse-Learning-Mobile/dp/B0CKRQ3N9W/ref=sr_1_2?crid=1TGUUBO2GUPXG&amp;dib=eyJ2IjoiMSJ9.y1-F9U8wTKploOwLbra7x_dsi6XA_61WOmjL6YdtfKrMZd5PgbtYetS_xvrxVlN5P2N30MVC6N3-x3f18WvJLvsACyrQPzED_H1v5AXbB5G5syHB0uEk7crueAZVtpCq1DlsW_jJNYq258-TK7XttLHSAv_SDIynj2wHjEpJ8M9MAHFKYdOwMS1MVOfpFPOYGVf7604XryxZFTUkz68xV3oE47bLD-NFwuB1HEwlYbg.TibLhJEUOcQ47hE3d_W_l7dd4y7OSJytlm989H5OdP4&amp;dib_tag=se&amp;keywords=gabby+lernhandy&amp;qid=1729517077&amp;sprefix=gabby+lern%2Caps%2C108&amp;sr=8-2#customerReviews</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71L5GUCfx4L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Telefon Gabby</t>
+  </si>
+  <si>
+    <t>37 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/furReal-Walkin-Interactive-Bouncing-Effects/dp/B0CRBJ8JFR/ref=sr_1_2?crid=1VQJRA7B0MIQV&amp;dib=eyJ2IjoiMSJ9.53Uu6FxJ4b6G8ZdU8vF8f5_69fBrUXbiB0mmwb1j4o3FN5oTVqD_WxOQ-IU9ZCdLyRupmmDs2Bni1O65n56dwqXUKAQ_hfty5U3xd6uubP6GEKV_XpgF4J5s--YdZWRl4b9kz0DjalmySz_sZaxBs7TKoEQrpKoOIm0HBvMOyJci82LMGrfxTtnRQVckEemvsf_-Ukh732hHa8ZrScNKi2kpUIJZSlMODf42dJNSYZY.WOEefNOMKp6eIVjyUoZ4k5cSLQjkeM2JF-DkR-rmPyE&amp;dib_tag=se&amp;keywords=furreal+friends+hund+gogo&amp;qid=1729516311&amp;sprefix=furreal+gogo+hun%2Caps%2C104&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71A+tWCmVlL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>(Clara) Catel cu telecomanda</t>
+  </si>
+  <si>
+    <t>68 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/LEGO-Disney-Princess-Adventure-Cinderella/dp/B0CFW17427/ref=sr_1_1?crid=2S57I7DOW3RGJ&amp;dib=eyJ2IjoiMSJ9.O4IX-zfr64af8opy3QSNF2ZT80sQLR4S5LkCENoLOZUsOdoigdNbq6JzcaiqiIhoBWzcD-sLcS7kUiCmkJsR2DBrUBl8Vj8KjQf9SRmP70sim25K3BZKQhNOWUmkrZnx49L9v6SHlL4TpdyPLWw9r9rGgq_Cv-AVhS4CqKj2YZyb2Yj5ONFOsQabxBcvsWRtRlgX_69FZPJg8Cn2zAdNA5jMwnxrT34Np7QsJi_NcHR_9ni-cyHdC-08q-if4qriU2xAiByK2HzpB3eBMbD9iQqD9J8RosV8sq6L4UKlS5A.y54hzRPnToDATsiTHnfK_onj2MxmliLgpehHCQBg9WE&amp;dib_tag=se&amp;keywords=lego+43246&amp;qid=1729516242&amp;sprefix=lego+43246%2Caps%2C201&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81kO40+M7UL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>LEGO Princess Market 43246</t>
+  </si>
+  <si>
+    <t>https://zalando.ch</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/bfd222ac1b2541db8553ad0bfbde422d/54a998916cfc4620b4bac8119c09a041.jpg?imwidth=300&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>Card cadou Zalando</t>
+  </si>
+  <si>
+    <t>https://assets.dryicons.com/uploads/icon/svg/13100/1a36a162-9ce3-4d75-a031-b61625848a32.svg</t>
+  </si>
+  <si>
+    <t>Puzzle (orice 3-5 ani)</t>
+  </si>
+  <si>
+    <t>40 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0C5CM48YK?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_12&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71QzF9kgYIL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Children's Camera</t>
+  </si>
+  <si>
+    <t>39 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09NLSGKQY?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_11&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/818M5Hm+RtL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Kinetic Sand Mermaid Suitcase</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09RNGBPWR?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_10&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/818l5KDNuEL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gabby's Dollhouse Bakey with Cakey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BSXNT6WC?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_9&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91bQnHUO2SL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Purr-ific Play Room</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BSXN87KY?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_8&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81l-tItC59L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Craft-a-riffic-Room</t>
+  </si>
+  <si>
+    <t>18 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09RP56GBF?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_7&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81LsArAAAlL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Gabby's Dollhouse Primp and Pamper Bathroom</t>
+  </si>
+  <si>
+    <t>28 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BQN9W3S9?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_6&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71gwmzjOPWL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Lil' Bunny Mini Rabbit Playset</t>
+  </si>
+  <si>
+    <t>10 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B01BPUNVS6?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_5&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/719xT8Gej0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TY Kiki Cat </t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08GPKTN2B?ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_3&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt1f23f4162f46d92c/10941_alt1.jpg?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>LEGO DUPLO Disney 10941</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0BZZ6QYBV?psc=1&amp;ref_=cm_sw_r_apin_ct_NE3NTKFC22P06P6A9346_2&amp;language=en_US</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81dH0PTPtJL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Magnetic Building Blocks</t>
+  </si>
+  <si>
+    <t>22 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Dollhouse-Fairies-Carousel-Children-10787/dp/B01N1PKFV2/ref=sr_1_2?crid=1BS7RQ4B36JNG&amp;dib=eyJ2IjoiMSJ9.vS3koCKT2OQe_xK7pOkDSRMckTxzj9i54kIiO2vGO77VnIV1rlySmIBqkWxf6esOq7fi-UjLi62y533WSJ2s73hMXuU5cQtpl-U3PsbLVw4g19MU12WM61vPD5vmf25WdqKOvKYbVIomInkyvQeUKovIPLb1siz5RqOLqGAosIFo9SXJtc_gULuVz63RGY_NCb81hdJXm9KAiML0KPWyZeZ0aaywEjFHK8tt5fWr4IpYnSjrEiu-HKYhifdfwNCEJEYXyq2BpZv-eOwjNU0VTjLSVG651P_1959d_R7ITds.f-0ZwBPpAlbG4D_qZtbGrN60O6bCqbDMpyu2BKlFxRU&amp;dib_tag=se&amp;keywords=10787&amp;qid=1715934695&amp;sprefix=10787%2Caps%2C191&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/3/4/7/9/9/5/2/5/6/5/9/4/5/0/5/2/1/7/4/9d6ae278-cc39-46fd-b96c-c4369aa0978c_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>LEGO Gabby's 10787</t>
+  </si>
+  <si>
+    <t>37 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s5/product/lego-elsas-ice-palace-43238-lego-disney-lego-37178164#fullscreen=show</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/8/8/6/1/7/5/5/9/4/3/5/5/0/7/6/1/0/8/4/2e1fafc7-457b-4c33-9d82-6787e73447c7.jpg?impolicy=ProductTileImage&amp;resizeWidth=984&amp;resizeHeight=992&amp;cropWidth=984&amp;cropHeight=992&amp;quality=high</t>
+  </si>
+  <si>
+    <t>LEGO Elsa's Ice Palace 43238</t>
+  </si>
+  <si>
+    <t>23 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s5/product/lego-elsas-maerchenbuch-43189-lego-disney-lego-14486838</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/4/5/0/7/2/8/1/6/6/4/5/0/2/0/1/7/7/6/0/f0bb771b-411d-43f9-8a13-b9131d8cc3ea.jpg?impolicy=ProductTileImage&amp;resizeWidth=958&amp;resizeHeight=992&amp;cropWidth=958&amp;cropHeight=992&amp;quality=high</t>
+  </si>
+  <si>
+    <t>LEGO Frozen Storybook 43189</t>
+  </si>
+  <si>
+    <t>34 CHF</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s8/product/affenzahn-einhorn-4-l-kindergarten-bag-14780511?ip=++++AFZ-FAS-003-027</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/6/3/7/3/9/3/9/4/8/8/2/7/3/4/6/6/9/0/7/98a02aeb-6639-4cea-967c-6a9c02c800cb_cropped.jpg?impolicy=ProductTileImage&amp;resizeWidth=648&amp;resizeHeight=486&amp;cropWidth=648&amp;cropHeight=486&amp;resizeType=downsize&amp;quality=high</t>
+  </si>
+  <si>
+    <t>Affenzahn Small Friend Unicorn</t>
+  </si>
+  <si>
+    <t>54 EUR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Affenzahn-Unisex-Childrens-Friend-Backpack/dp/B0BPFBPF99/ref=sr_1_2_mod_primary_new?crid=66UZLFMDNROT&amp;dib=eyJ2IjoiMSJ9.YS1hdq_RM1V5nrJ3eSO9HoLIVhAE9TgrQhLnQiQXpmMYBPYyQKliNaahAmPEVHADLWBdh0NFAWb1C1PQyMSIzSibmpmO7kf2veysLgS9OceHCpwq8kbbGSEaZFCHuxmROIPxLthdbN-d_N0PosVIQuUszmeCw_GC_78DHuGl3KxElhuMiF-9fbAOSGHat2OBx6oOUJNehIucMVbFa15mkpjLnXrd-7NIyewJoDOcwdsmJa63z0VtvnU-RAfvZwSRZs0hktl_7d7YgDuyXZLThyZh_CkRi8kCJRJyLSikUK4.D2rJU2tD8tv86jxol_Fh6Ag8ID3kBbrEe0hEVqJesIQ&amp;dib_tag=se&amp;keywords=affenzahn+fuchs&amp;qid=1715935160&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=affenzahn+fuchs%2Caps%2C111&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://fondof.getbynder.com/transform/4293bede-0bea-454b-8673-ff84b0e91924/Kids-Backpack-Large-Friend-Fox?io=transform:extend,width:800,height:800</t>
+  </si>
+  <si>
+    <t>Affenzahn Big Friend Fox</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -819,17 +1213,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -863,7 +1258,7 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -880,7 +1275,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -897,7 +1292,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -914,7 +1309,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -931,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -948,7 +1343,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -956,7 +1351,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -965,7 +1360,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -973,7 +1368,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -982,7 +1377,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -999,7 +1394,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1411,7 @@
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1033,7 +1428,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1445,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1462,7 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1084,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1101,7 +1496,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1513,7 @@
         <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1530,7 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1152,7 +1547,7 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1186,7 +1581,7 @@
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1203,212 +1598,1203 @@
         <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
         <v>126</v>
       </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
       <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
       <c r="E33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
+      <c r="C79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E93" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:E93">
+      <sortCondition ref="E1:E34"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
     <sortCondition ref="D2:D22"/>
@@ -1434,9 +2820,37 @@
     <hyperlink ref="C8" r:id="rId18" xr:uid="{FDF6EF39-70BA-46D0-8028-D418F90E90BB}"/>
     <hyperlink ref="C10" r:id="rId19" xr:uid="{1A8BAC60-B56A-4F82-AACC-642F76628710}"/>
     <hyperlink ref="C15" r:id="rId20" xr:uid="{14F5821C-C44D-4873-8658-99F81A6E6FF2}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{340B9A88-14C1-4368-A4A0-0B86210507B4}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{6E0D8E5E-868F-416D-A49C-17A8092D58FF}"/>
+    <hyperlink ref="C42" r:id="rId23" location="fullscreen=show" xr:uid="{0295AFED-A2D7-4D5F-B409-1E9D4FDBF770}"/>
+    <hyperlink ref="C48" r:id="rId24" xr:uid="{6C77E194-2550-4CE0-B0FF-F5ECC48ECF56}"/>
+    <hyperlink ref="C49" r:id="rId25" xr:uid="{7F32884D-65D7-42BE-8265-5F410935D51A}"/>
+    <hyperlink ref="C46" r:id="rId26" xr:uid="{4C8D64D7-2122-457F-AFF2-6B65C950AF9A}"/>
+    <hyperlink ref="C45" r:id="rId27" xr:uid="{8CD72DF6-642E-4149-8387-3D7DB1B611AC}"/>
+    <hyperlink ref="C47" r:id="rId28" xr:uid="{0EC30D01-A384-4651-A5B4-5B121E7FB9A5}"/>
+    <hyperlink ref="C50" r:id="rId29" xr:uid="{B0F27F88-FB75-4617-B90E-09428310F261}"/>
+    <hyperlink ref="C40" r:id="rId30" location="fullscreen=show" xr:uid="{6CD5328A-4FCD-482F-8CC4-F65BF1A55AA1}"/>
+    <hyperlink ref="C79" r:id="rId31" xr:uid="{1466CE55-3E08-461F-80AD-4CC2BBD419BE}"/>
+    <hyperlink ref="C81" r:id="rId32" location="fullscreen=show" xr:uid="{F69298B1-151D-4A9A-B47E-D8BBAABA63E6}"/>
+    <hyperlink ref="C82" r:id="rId33" xr:uid="{BE19D0E0-29E0-402D-8295-1CA84C72EA4A}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{E9F64D5D-ECCF-4C96-B120-022A63F34F8B}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{ED57EE44-4674-4CFC-B8A6-62FFE5D3FCEC}"/>
+    <hyperlink ref="C75" r:id="rId36" xr:uid="{C533CAFB-CB40-41EA-9B65-9E2BE91978FD}"/>
+    <hyperlink ref="C76" r:id="rId37" xr:uid="{E90B2CED-09CD-4426-B15F-195E047698E5}"/>
+    <hyperlink ref="C77" r:id="rId38" xr:uid="{BA42B57A-4934-4C85-933E-32BFF4DB092D}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{0F18971F-4F0B-45C2-B65D-91E13F13487D}"/>
+    <hyperlink ref="C78" r:id="rId40" xr:uid="{72E2F939-CBC4-40D1-A67E-3B0F679A107D}"/>
+    <hyperlink ref="C41" r:id="rId41" xr:uid="{3896E971-69EB-42D0-9AFB-82F67A2DA246}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{A23C3A5D-032E-41A1-8364-30E60FD75B38}"/>
+    <hyperlink ref="B62" r:id="rId43" xr:uid="{5AF2D273-A962-485D-85DB-E4B8AD7BB70D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ff6dbec8-95a8-4638-9f5f-bd076536645c}" enabled="1" method="Standard" siteId="{5dbf1add-202a-4b8d-815b-bf0fb024e033}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>